--- a/099-納品物/質問事項.xlsx
+++ b/099-納品物/質問事項.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\システム開発演習\099-納品物\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BF5E611-6EFE-41E2-8B4A-F2CFD09E5AFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{306350C2-CC70-4A3D-B2A0-A45BC8A316A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{D3EF8E00-86F4-4977-A60A-1E4252966D0F}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="4" xr2:uid="{D3EF8E00-86F4-4977-A60A-1E4252966D0F}"/>
   </bookViews>
   <sheets>
     <sheet name="共通質問" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="80">
   <si>
     <t>Ans</t>
     <phoneticPr fontId="1"/>
@@ -55,12 +55,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>検索一覧</t>
-  </si>
-  <si>
-    <t>詳細表示</t>
-  </si>
-  <si>
     <t>ログイン画面</t>
     <rPh sb="4" eb="6">
       <t>ガメン</t>
@@ -71,9 +65,6 @@
     <t>商品は何点まで購入可能なのか</t>
   </si>
   <si>
-    <t>商品検索画面に戻った際に検索キーワードは保存するのか</t>
-  </si>
-  <si>
     <t>既にカートに入っている商品を追加した場合、上書きか追加か</t>
   </si>
   <si>
@@ -149,31 +140,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>数量を指定していない時のデフォルト値は0個なのか1個なのか、それ以外か</t>
-    <rPh sb="0" eb="2">
-      <t>スウリョウ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>シテイ</t>
-    </rPh>
-    <rPh sb="10" eb="11">
-      <t>トキ</t>
-    </rPh>
-    <rPh sb="17" eb="18">
-      <t>チ</t>
-    </rPh>
-    <rPh sb="20" eb="21">
-      <t>コ</t>
-    </rPh>
-    <rPh sb="25" eb="26">
-      <t>コ</t>
-    </rPh>
-    <rPh sb="32" eb="34">
-      <t>イガイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>在庫より多い数量を購入しようとしたときのエラーメッセージ</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -208,60 +174,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>全体</t>
-    <rPh sb="0" eb="2">
-      <t>ゼンタイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>不正アクセスエラーの具体的な処理(エラーメッセージなのか、画面遷移するのか、もしそうなら遷移状態も)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ログインセッションの期限は？</t>
-    <rPh sb="10" eb="12">
-      <t>キゲン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>requestScope、sessionScpopeそれぞれ何をどっちの値に入れるのか、範囲はどこまでか</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>パスワードの暗号化はHush?salt?、Hushの場合方法はいくつかあるが、何をいくつ使うのか</t>
-    <rPh sb="6" eb="9">
-      <t>アンゴウカ</t>
-    </rPh>
-    <rPh sb="26" eb="28">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="28" eb="30">
-      <t>ホウホウ</t>
-    </rPh>
-    <rPh sb="39" eb="40">
-      <t>ナニ</t>
-    </rPh>
-    <rPh sb="44" eb="45">
-      <t>ツカ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>JavascriptやXMLファイルはコーディング規約に書かれていなかったが、作成していいのかどうか</t>
-    <rPh sb="25" eb="27">
-      <t>キヤク</t>
-    </rPh>
-    <rPh sb="28" eb="29">
-      <t>カ</t>
-    </rPh>
-    <rPh sb="39" eb="41">
-      <t>サクセイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>カラムの上限値(住所名前メアドパスワード何桁用意するのか)</t>
     <rPh sb="4" eb="7">
       <t>ジョウゲンチ</t>
@@ -278,13 +190,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>退会処理と注文履歴は論理削除か物理削除か</t>
-    <rPh sb="5" eb="9">
-      <t>チュウモンリレキ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>機能(画面)</t>
     <rPh sb="0" eb="2">
       <t>キノウ</t>
@@ -303,19 +208,6 @@
   </si>
   <si>
     <t>会員情報の入力制限(メアド、名前、住所、電話番号、パスワード)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>名前や住所はふりがなも入力するのか</t>
-    <rPh sb="0" eb="2">
-      <t>ナマエ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>ジュウショ</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>ニュウリョク</t>
-    </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -545,38 +437,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>郵便番号、都道府県、市区町村、番地は入力フォームを分割するのか
-都道府県、市区町村はプルダウンなどを使用するのか</t>
-    <rPh sb="0" eb="4">
-      <t>ユウビンバンゴウ</t>
-    </rPh>
-    <rPh sb="5" eb="9">
-      <t>トドウフケン</t>
-    </rPh>
-    <rPh sb="10" eb="14">
-      <t>シクチョウソン</t>
-    </rPh>
-    <rPh sb="15" eb="17">
-      <t>バンチ</t>
-    </rPh>
-    <rPh sb="18" eb="20">
-      <t>ニュウリョク</t>
-    </rPh>
-    <rPh sb="25" eb="27">
-      <t>ブンカツ</t>
-    </rPh>
-    <rPh sb="32" eb="36">
-      <t>トドウフケン</t>
-    </rPh>
-    <rPh sb="37" eb="41">
-      <t>シクチョウソン</t>
-    </rPh>
-    <rPh sb="50" eb="52">
-      <t>シヨウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>各画面とは、検索結果、ログイン画面、会員情報変更の3つで良いのか
 (購入確認画面などに遷移しなくてよいか)</t>
     <rPh sb="34" eb="40">
@@ -632,71 +492,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <r>
-      <t>検索結果が何ページあるかを表示するのか（&lt;&lt;　&gt;&gt;　or　</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="游ゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>① ②</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="游ゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> … ⑩）</t>
-    </r>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>検索結果はどこに表示するのか(検索欄に表示するなら引き続き検索できる機能があるのか)</t>
-    <rPh sb="19" eb="21">
-      <t>ヒョウジ</t>
-    </rPh>
-    <rPh sb="25" eb="26">
-      <t>ヒ</t>
-    </rPh>
-    <rPh sb="27" eb="28">
-      <t>ツヅ</t>
-    </rPh>
-    <rPh sb="29" eb="31">
-      <t>ケンサク</t>
-    </rPh>
-    <rPh sb="34" eb="36">
-      <t>キノウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>オススメ表示は詳細で表示しないのか(確認)</t>
-  </si>
-  <si>
-    <t>商品検索結果画面に遷移しなくてよいか(確認)</t>
-    <rPh sb="0" eb="6">
-      <t>ショウヒンケンサクケッカ</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>センイ</t>
-    </rPh>
-    <rPh sb="19" eb="21">
-      <t>カクニン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>数量のinput typeの方法、プルダウンなら上限は何か</t>
     <rPh sb="24" eb="26">
       <t>ジョウゲン</t>
@@ -715,9 +510,6 @@
       <t>センイジョウタイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>既にカートに追加されている商品の場合、その情報を記載するのか</t>
   </si>
   <si>
     <t>ユーザーの商品の在庫の確保は、カートに入れたタイミングでなくていいか(確認)</t>
@@ -838,40 +630,272 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>エスケープ処理、何をいくつ使うのか</t>
+    <t>入力制限にひっかかった時のエラーメッセージの文言はどうするのか</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>既にあるメールアドレスで登録した場合、登録できるのかできないのか、できなかった時のエラーメッセージはどうするべきか</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>郵便番号、都道府県、市区町村、番地は入力フォームを分割するのか</t>
+    <rPh sb="0" eb="4">
+      <t>ユウビンバンゴウ</t>
+    </rPh>
+    <rPh sb="5" eb="9">
+      <t>トドウフケン</t>
+    </rPh>
+    <rPh sb="10" eb="14">
+      <t>シクチョウソン</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>バンチ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>ブンカツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>検索キーワードの表示の文言(キーワード：～～　カテゴリ：～～　)</t>
+    <rPh sb="0" eb="2">
+      <t>ケンサク</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>モンゴン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>数量を指定していない時のデフォルト値は0個なのか1個なのか</t>
+    <rPh sb="0" eb="2">
+      <t>スウリョウ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>シテイ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>トキ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>チ</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>コ</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>コ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>商品の記載は一マスに全部入れるのか、一列の中で項目をマスで分けるのか、それ以外か</t>
+    <rPh sb="0" eb="2">
+      <t>ショウヒン</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>キサイ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ヒト</t>
+    </rPh>
+    <rPh sb="10" eb="13">
+      <t>ゼンブイ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>イチレツ</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>ナカ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>コウモク</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>ワ</t>
+    </rPh>
+    <rPh sb="37" eb="39">
+      <t>イガイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>退会した後の購入履歴は残すのか残さないのか</t>
+    <rPh sb="0" eb="2">
+      <t>タイカイ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>アト</t>
+    </rPh>
+    <rPh sb="6" eb="10">
+      <t>コウニュウリレキ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>ノコ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>ノコ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>注文単位でのキャンセルは一つのみでのキャンセルか</t>
+    <rPh sb="0" eb="4">
+      <t>チュウモンタンイ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>ヒト</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>購入履歴
+キャンセル
+確認画面</t>
+    <rPh sb="11" eb="13">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>キャンセル確認のテーブルは一覧表示のテーブルと同じ形での表示でよいか</t>
     <rPh sb="5" eb="7">
-      <t>ショリ</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>ナニ</t>
-    </rPh>
-    <rPh sb="13" eb="14">
-      <t>ツカ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>複数端末でログインした場合どうなるのか</t>
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="13" eb="17">
+      <t>イチランヒョウジ</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>オナ</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>カタチ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>購入履歴は1ページにつき何件単位の表示か(確認画面も)</t>
     <rPh sb="0" eb="4">
-      <t>フクスウタンマツ</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>バアイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>入力制限にひっかかった時のエラーメッセージの文言はどうするのか</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>既にあるメールアドレスで登録した場合、登録できるのかできないのか、できなかった時のエラーメッセージはどうするべきか</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>コネクションプールを使用するのか</t>
-    <rPh sb="10" eb="12">
-      <t>シヨウ</t>
+      <t>コウニュウリレキ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ナンケン</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>タンイ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="21" eb="25">
+      <t>カクニンガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>履歴は何順で表示するのか（日付の最新順など）</t>
+    <rPh sb="0" eb="2">
+      <t>リレキ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ナニジュン</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ヒヅケ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>サイシン</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>ジュン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>会員登録情報入力画面
+会員情報変更確認画面</t>
+    <rPh sb="0" eb="2">
+      <t>カイイン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="11" eb="21">
+      <t>カイインジョウホウヘンコウカクニンガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>入力したパスワードと確認用のパスワードが違った際のエラーメッセージ</t>
+    <rPh sb="0" eb="2">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="10" eb="13">
+      <t>カクニンヨウ</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>チガ</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>サイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>テーブルの縦列は一列で良いのか</t>
+    <rPh sb="5" eb="6">
+      <t>タテ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>レツ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>イチレツ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>ヨ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>カテゴリはプルダウンかラジオボタンかそれ以外か</t>
+    <rPh sb="20" eb="22">
+      <t>イガイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>検索結果画面</t>
+    <rPh sb="2" eb="6">
+      <t>ケッカガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>詳細表示画面</t>
+    <rPh sb="4" eb="6">
+      <t>ガメン</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -880,7 +904,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -895,13 +919,6 @@
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="游ゴシック"/>
-      <family val="2"/>
-      <charset val="128"/>
     </font>
   </fonts>
   <fills count="3">
@@ -918,7 +935,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="21">
+  <borders count="26">
     <border>
       <left/>
       <right/>
@@ -1001,21 +1018,6 @@
       <top style="dashed">
         <color indexed="64"/>
       </top>
-      <bottom style="dashed">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="dashed">
-        <color indexed="64"/>
-      </top>
       <bottom/>
       <diagonal/>
     </border>
@@ -1090,17 +1092,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="dashed">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="medium">
         <color indexed="64"/>
       </left>
@@ -1168,13 +1159,110 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="dotted">
+        <color indexed="64"/>
+      </top>
+      <bottom style="dotted">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="dotted">
+        <color indexed="64"/>
+      </top>
+      <bottom style="dotted">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="dotted">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="dashed">
+        <color indexed="64"/>
+      </top>
+      <bottom style="dotted">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="dotted">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="dashed">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="dotted">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1199,109 +1287,127 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="21" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="22" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1618,11 +1724,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F8FB7E9-4FDD-49E2-B598-83B457200A33}">
-  <dimension ref="A1:C32"/>
+  <dimension ref="A1:C23"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
-    </sheetView>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
@@ -1633,276 +1737,212 @@
   <sheetData>
     <row r="1" spans="1:3" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A2" s="45"/>
+      <c r="B2" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="4"/>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A3" s="45"/>
+      <c r="B3" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" s="4"/>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A4" s="45"/>
+      <c r="B4" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="C4" s="4"/>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A5" s="45"/>
+      <c r="B5" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" s="4"/>
+    </row>
+    <row r="6" spans="1:3" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A6" s="45"/>
+      <c r="B6" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" s="4"/>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A7" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" s="43" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C1" s="14" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A2" s="39" t="s">
+      <c r="C7" s="3"/>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A8" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B8" s="45"/>
+      <c r="C8" s="4"/>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A9" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9" s="45"/>
+      <c r="C9" s="4"/>
+    </row>
+    <row r="10" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A10" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="C2" s="4"/>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A3" s="37"/>
-      <c r="B3" s="4" t="s">
+      <c r="B10" s="45"/>
+      <c r="C10" s="4"/>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A11" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" s="45"/>
+      <c r="C11" s="4"/>
+    </row>
+    <row r="12" spans="1:3" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A12" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="C3" s="4"/>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A4" s="37"/>
-      <c r="B4" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="C4" s="4"/>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A5" s="37"/>
-      <c r="B5" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="C5" s="4"/>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A6" s="37"/>
-      <c r="B6" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="C6" s="4"/>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A7" s="37"/>
-      <c r="B7" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C7" s="4"/>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A8" s="37"/>
-      <c r="B8" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="C8" s="4"/>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A9" s="37"/>
-      <c r="B9" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="C9" s="4"/>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A10" s="37"/>
-      <c r="B10" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="C10" s="4"/>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A11" s="37"/>
-      <c r="B11" s="4" t="s">
+      <c r="B12" s="44"/>
+      <c r="C12" s="13"/>
+    </row>
+    <row r="13" spans="1:3" ht="15.6" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A13" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="B13" s="46" t="s">
+        <v>29</v>
+      </c>
+      <c r="C13" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="C11" s="4"/>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A12" s="37"/>
-      <c r="B12" s="4" t="s">
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A14" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="B14" s="47"/>
+      <c r="C14" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="C12" s="4"/>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A13" s="37"/>
-      <c r="B13" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="C13" s="4"/>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A14" s="37"/>
-      <c r="B14" s="4" t="s">
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A15" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="B15" s="47"/>
+      <c r="C15" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A16" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="B16" s="47"/>
+      <c r="C16" s="4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A17" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="C14" s="4"/>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A15" s="37"/>
-      <c r="B15" s="4" t="s">
+      <c r="B17" s="47"/>
+      <c r="C17" s="4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A18" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="C15" s="4"/>
-    </row>
-    <row r="16" spans="1:3" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A16" s="37"/>
-      <c r="B16" s="8" t="s">
+      <c r="B18" s="48"/>
+      <c r="C18" s="13" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="36.6" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A19" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="C16" s="8"/>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A17" s="23" t="s">
-        <v>26</v>
-      </c>
-      <c r="B17" s="39" t="s">
+      <c r="B19" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="C19" s="22"/>
+    </row>
+    <row r="20" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A20" s="38" t="s">
+        <v>38</v>
+      </c>
+      <c r="B20" s="43" t="s">
         <v>37</v>
       </c>
-      <c r="C17" s="3"/>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A18" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="B18" s="37"/>
-      <c r="C18" s="4"/>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A19" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="B19" s="37"/>
-      <c r="C19" s="4"/>
-    </row>
-    <row r="20" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A20" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="B20" s="37"/>
-      <c r="C20" s="4"/>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A21" s="24" t="s">
-        <v>33</v>
-      </c>
-      <c r="B21" s="37"/>
-      <c r="C21" s="4"/>
-    </row>
-    <row r="22" spans="1:3" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A22" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="B22" s="38"/>
-      <c r="C22" s="15"/>
-    </row>
-    <row r="23" spans="1:3" ht="15.6" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A23" s="22" t="s">
-        <v>42</v>
-      </c>
-      <c r="B23" s="40" t="s">
-        <v>41</v>
-      </c>
-      <c r="C23" s="3" t="s">
+      <c r="C20" s="43"/>
+    </row>
+    <row r="21" spans="1:3" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A21" s="17" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A24" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="B24" s="41"/>
-      <c r="C24" s="4" t="s">
+      <c r="B21" s="44"/>
+      <c r="C21" s="44"/>
+    </row>
+    <row r="22" spans="1:3" ht="36.6" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A22" s="23" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A25" s="16" t="s">
-        <v>44</v>
-      </c>
-      <c r="B25" s="41"/>
-      <c r="C25" s="4" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A26" s="16" t="s">
-        <v>45</v>
-      </c>
-      <c r="B26" s="41"/>
-      <c r="C26" s="4" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A27" s="16" t="s">
-        <v>46</v>
-      </c>
-      <c r="B27" s="41"/>
-      <c r="C27" s="4" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A28" s="16" t="s">
-        <v>47</v>
-      </c>
-      <c r="B28" s="42"/>
-      <c r="C28" s="15" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" ht="36.6" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A29" s="25" t="s">
-        <v>36</v>
-      </c>
-      <c r="B29" s="22" t="s">
-        <v>48</v>
-      </c>
-      <c r="C29" s="25"/>
-    </row>
-    <row r="30" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A30" s="19" t="s">
-        <v>50</v>
-      </c>
-      <c r="B30" s="39" t="s">
-        <v>49</v>
-      </c>
-      <c r="C30" s="39"/>
-    </row>
-    <row r="31" spans="1:3" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A31" s="20" t="s">
-        <v>51</v>
-      </c>
-      <c r="B31" s="38"/>
-      <c r="C31" s="38"/>
-    </row>
-    <row r="32" spans="1:3" ht="36.6" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A32" s="26" t="s">
-        <v>52</v>
-      </c>
-      <c r="B32" s="27" t="s">
-        <v>53</v>
-      </c>
-      <c r="C32" s="28"/>
+      <c r="B22" s="24" t="s">
+        <v>64</v>
+      </c>
+      <c r="C22" s="25"/>
+    </row>
+    <row r="23" spans="1:3" ht="36.6" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A23" s="23" t="s">
+        <v>74</v>
+      </c>
+      <c r="B23" s="24" t="s">
+        <v>75</v>
+      </c>
+      <c r="C23" s="25"/>
     </row>
   </sheetData>
   <mergeCells count="5">
-    <mergeCell ref="B30:B31"/>
-    <mergeCell ref="B17:B22"/>
-    <mergeCell ref="B23:B28"/>
-    <mergeCell ref="C30:C31"/>
-    <mergeCell ref="A2:A16"/>
+    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="B7:B12"/>
+    <mergeCell ref="B13:B18"/>
+    <mergeCell ref="C20:C21"/>
+    <mergeCell ref="A2:A6"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C65AB5F3-8A12-4EB9-8D26-D5B11EA9BAD6}">
-  <dimension ref="A1:C18"/>
+  <dimension ref="A1:C17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
@@ -1915,144 +1955,135 @@
         <v>1</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="36.6" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A2" s="17" t="s">
+    <row r="2" spans="1:3" ht="36" x14ac:dyDescent="0.45">
+      <c r="A2" s="43" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="29" t="s">
-        <v>54</v>
-      </c>
-      <c r="C2" s="8"/>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A3" s="39" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" s="11" t="s">
-        <v>55</v>
-      </c>
-      <c r="C3" s="3"/>
+      <c r="B2" s="40" t="s">
+        <v>41</v>
+      </c>
+      <c r="C2" s="41"/>
+    </row>
+    <row r="3" spans="1:3" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A3" s="45"/>
+      <c r="B3" s="42" t="s">
+        <v>77</v>
+      </c>
+      <c r="C3" s="35"/>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A4" s="37"/>
-      <c r="B4" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="C4" s="4"/>
+      <c r="A4" s="43" t="s">
+        <v>78</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="C4" s="3"/>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A5" s="37"/>
+      <c r="A5" s="45"/>
       <c r="B5" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C5" s="4"/>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A6" s="45"/>
+      <c r="B6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="4"/>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A7" s="45"/>
+      <c r="B7" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C7" s="4"/>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A8" s="45"/>
+      <c r="B8" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C8" s="4"/>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A9" s="45"/>
+      <c r="B9" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C9" s="4"/>
+    </row>
+    <row r="10" spans="1:3" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A10" s="45"/>
+      <c r="B10" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="4"/>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A6" s="37"/>
-      <c r="B6" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C6" s="4"/>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A7" s="37"/>
-      <c r="B7" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="C7" s="5"/>
-    </row>
-    <row r="8" spans="1:3" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A8" s="38"/>
-      <c r="B8" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="C8" s="7"/>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A9" s="39" t="s">
+      <c r="C10" s="4"/>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A11" s="43" t="s">
+        <v>79</v>
+      </c>
+      <c r="B11" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C11" s="15"/>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A12" s="45"/>
+      <c r="B12" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="C12" s="5"/>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A13" s="45"/>
+      <c r="B13" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="B9" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="C9" s="17"/>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A10" s="37"/>
-      <c r="B10" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="C10" s="6"/>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A11" s="37"/>
-      <c r="B11" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="C11" s="6"/>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A12" s="37"/>
-      <c r="B12" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="C12" s="6"/>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A13" s="37"/>
-      <c r="B13" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C13" s="6"/>
+      <c r="C13" s="5"/>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A14" s="37"/>
-      <c r="B14" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="C14" s="6"/>
+      <c r="A14" s="45"/>
+      <c r="B14" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14" s="5"/>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A15" s="37"/>
-      <c r="B15" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="C15" s="6"/>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A16" s="37"/>
-      <c r="B16" s="9" t="s">
-        <v>61</v>
+      <c r="A15" s="45"/>
+      <c r="B15" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="C15" s="5"/>
+    </row>
+    <row r="16" spans="1:3" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A16" s="44"/>
+      <c r="B16" s="39" t="s">
+        <v>45</v>
       </c>
       <c r="C16" s="6"/>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A17" s="37"/>
-      <c r="B17" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="C17" s="6"/>
-    </row>
-    <row r="18" spans="1:3" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A18" s="38"/>
-      <c r="B18" s="10" t="s">
-        <v>63</v>
-      </c>
-      <c r="C18" s="7"/>
+    <row r="17" spans="3:3" x14ac:dyDescent="0.45">
+      <c r="C17" s="34"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A9:A18"/>
-    <mergeCell ref="A3:A8"/>
+  <mergeCells count="3">
+    <mergeCell ref="A11:A16"/>
+    <mergeCell ref="A4:A10"/>
+    <mergeCell ref="A2:A3"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2060,7 +2091,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B964CEE8-79F1-414D-9737-5A303D226F85}">
   <dimension ref="A1:C8"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView zoomScale="86" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
@@ -2073,62 +2104,62 @@
         <v>1</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="36" x14ac:dyDescent="0.45">
-      <c r="A2" s="39" t="s">
-        <v>68</v>
-      </c>
-      <c r="B2" s="12" t="s">
-        <v>66</v>
+      <c r="A2" s="43" t="s">
+        <v>50</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>48</v>
       </c>
       <c r="C2" s="3"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A3" s="37"/>
+      <c r="A3" s="45"/>
       <c r="B3" s="4" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C3" s="4"/>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A4" s="37"/>
+      <c r="A4" s="45"/>
       <c r="B4" s="4" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C4" s="4"/>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A5" s="37"/>
+      <c r="A5" s="45"/>
       <c r="B5" s="4" t="s">
-        <v>67</v>
+        <v>49</v>
       </c>
       <c r="C5" s="4"/>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A6" s="37"/>
+      <c r="A6" s="45"/>
       <c r="B6" s="4" t="s">
-        <v>64</v>
+        <v>46</v>
       </c>
       <c r="C6" s="4"/>
     </row>
     <row r="7" spans="1:3" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A7" s="37"/>
-      <c r="B7" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="C7" s="8"/>
+      <c r="A7" s="45"/>
+      <c r="B7" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="C7" s="7"/>
     </row>
     <row r="8" spans="1:3" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A8" s="30" t="s">
-        <v>69</v>
+      <c r="A8" s="26" t="s">
+        <v>51</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>70</v>
+        <v>52</v>
       </c>
       <c r="C8" s="2"/>
     </row>
@@ -2145,9 +2176,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2CB6D5FA-221C-4DE9-AF9F-2825B59936D3}">
   <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
@@ -2160,59 +2189,59 @@
         <v>1</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="36" x14ac:dyDescent="0.45">
-      <c r="A2" s="39" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" s="32" t="s">
-        <v>73</v>
+      <c r="A2" s="43" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="28" t="s">
+        <v>55</v>
       </c>
       <c r="C2" s="3"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A3" s="37"/>
+      <c r="A3" s="45"/>
       <c r="B3" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="C3" s="18"/>
+        <v>54</v>
+      </c>
+      <c r="C3" s="16"/>
     </row>
     <row r="4" spans="1:3" ht="36.6" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A4" s="38"/>
-      <c r="B4" s="33" t="s">
-        <v>74</v>
-      </c>
-      <c r="C4" s="34"/>
+      <c r="A4" s="44"/>
+      <c r="B4" s="29" t="s">
+        <v>56</v>
+      </c>
+      <c r="C4" s="30"/>
     </row>
     <row r="5" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A5" s="40" t="s">
-        <v>14</v>
-      </c>
-      <c r="B5" s="11" t="s">
-        <v>75</v>
+      <c r="A5" s="46" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>57</v>
       </c>
       <c r="C5" s="3"/>
     </row>
     <row r="6" spans="1:3" ht="36.6" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A6" s="42"/>
-      <c r="B6" s="31" t="s">
-        <v>83</v>
-      </c>
-      <c r="C6" s="31"/>
+      <c r="A6" s="48"/>
+      <c r="B6" s="27" t="s">
+        <v>63</v>
+      </c>
+      <c r="C6" s="27"/>
     </row>
     <row r="7" spans="1:3" ht="36.6" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A7" s="21" t="s">
-        <v>71</v>
-      </c>
-      <c r="B7" s="35" t="s">
-        <v>76</v>
-      </c>
-      <c r="C7" s="34"/>
+      <c r="A7" s="18" t="s">
+        <v>53</v>
+      </c>
+      <c r="B7" s="31" t="s">
+        <v>58</v>
+      </c>
+      <c r="C7" s="30"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -2227,11 +2256,9 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E26B6F5A-9478-41E7-B16E-979C29CC429A}">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
@@ -2244,33 +2271,82 @@
         <v>1</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A2" s="39" t="s">
-        <v>77</v>
-      </c>
-      <c r="B2" s="11" t="s">
-        <v>78</v>
-      </c>
-      <c r="C2" s="36"/>
-    </row>
-    <row r="3" spans="1:3" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A3" s="38"/>
-      <c r="B3" s="13" t="s">
-        <v>79</v>
-      </c>
-      <c r="C3" s="15"/>
+      <c r="A2" s="43" t="s">
+        <v>59</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="C2" s="32"/>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A3" s="45"/>
+      <c r="B3" s="33" t="s">
+        <v>69</v>
+      </c>
+      <c r="C3" s="37"/>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A4" s="45"/>
+      <c r="B4" s="35" t="s">
+        <v>68</v>
+      </c>
+      <c r="C4" s="36"/>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A5" s="45"/>
+      <c r="B5" s="35" t="s">
+        <v>72</v>
+      </c>
+      <c r="C5" s="36"/>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A6" s="45"/>
+      <c r="B6" s="35" t="s">
+        <v>73</v>
+      </c>
+      <c r="C6" s="36"/>
+    </row>
+    <row r="7" spans="1:3" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A7" s="44"/>
+      <c r="B7" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="C7" s="13"/>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A8" s="46" t="s">
+        <v>70</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="C8" s="32"/>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A9" s="45"/>
+      <c r="B9" s="35"/>
+      <c r="C9" s="36"/>
+    </row>
+    <row r="10" spans="1:3" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A10" s="44"/>
+      <c r="B10" s="11"/>
+      <c r="C10" s="13"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A2:A3"/>
+  <mergeCells count="2">
+    <mergeCell ref="A2:A7"/>
+    <mergeCell ref="A8:A10"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/099-納品物/質問事項.xlsx
+++ b/099-納品物/質問事項.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\システム開発演習\099-納品物\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{306350C2-CC70-4A3D-B2A0-A45BC8A316A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC971E66-EE64-418C-A06A-0969E39CE363}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="4" xr2:uid="{D3EF8E00-86F4-4977-A60A-1E4252966D0F}"/>
+    <workbookView xWindow="5856" yWindow="0" windowWidth="17280" windowHeight="8880" activeTab="3" xr2:uid="{D3EF8E00-86F4-4977-A60A-1E4252966D0F}"/>
   </bookViews>
   <sheets>
     <sheet name="共通質問" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="90">
   <si>
     <t>Ans</t>
     <phoneticPr fontId="1"/>
@@ -437,17 +437,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>各画面とは、検索結果、ログイン画面、会員情報変更の3つで良いのか
-(購入確認画面などに遷移しなくてよいか)</t>
-    <rPh sb="34" eb="40">
-      <t>コウニュウカクニンガメン</t>
-    </rPh>
-    <rPh sb="43" eb="45">
-      <t>センイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>キーワードとカテゴリ両方の検索した際の表示方法</t>
     <rPh sb="10" eb="12">
       <t>リョウホウ</t>
@@ -569,10 +558,6 @@
   </si>
   <si>
     <t>購入確認画面</t>
-  </si>
-  <si>
-    <t>代引きの表示はラジオボタン？プルダウン？Input typeの表示方法</t>
-    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>情報変更完了画面</t>
@@ -631,10 +616,6 @@
   </si>
   <si>
     <t>入力制限にひっかかった時のエラーメッセージの文言はどうするのか</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>既にあるメールアドレスで登録した場合、登録できるのかできないのか、できなかった時のエラーメッセージはどうするべきか</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -898,6 +879,167 @@
       <t>ガメン</t>
     </rPh>
     <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>購入確認画面に遷移しないのか</t>
+    <rPh sb="0" eb="6">
+      <t>コウニュウカクニンガメン</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>カート削除
+確認画面</t>
+    <rPh sb="3" eb="5">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="6" eb="10">
+      <t>カクニンガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>カート削除完了画面に遷移ができるという認識で良いか（確認）
+また、完了ページに遷移するボタンの文言は何か</t>
+    <rPh sb="3" eb="9">
+      <t>サクジョカンリョウガメン</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>センイ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ニンシキ</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>ヨ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>カンリョウ</t>
+    </rPh>
+    <rPh sb="39" eb="41">
+      <t>センイ</t>
+    </rPh>
+    <rPh sb="47" eb="49">
+      <t>モンゴン</t>
+    </rPh>
+    <rPh sb="50" eb="51">
+      <t>ナニ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>代引きの表示はラジオボタン？プルダウン？Input typeの表示方法</t>
+  </si>
+  <si>
+    <t>清算方法、配送先が指定されないまま購入画面に遷移しようとした際のエラー処理</t>
+    <rPh sb="0" eb="4">
+      <t>セイサンホウホウ</t>
+    </rPh>
+    <rPh sb="5" eb="8">
+      <t>ハイソウサキ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>シテイ</t>
+    </rPh>
+    <rPh sb="17" eb="21">
+      <t>コウニュウガメン</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>センイ</t>
+    </rPh>
+    <rPh sb="30" eb="31">
+      <t>サイ</t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t>ショリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>購入完了画面</t>
+    <rPh sb="2" eb="4">
+      <t>カンリョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>商品検索画面に遷移しなくてよいか</t>
+    <rPh sb="0" eb="6">
+      <t>ショウヒンケンサクガメン</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>会員ID、パスワードの入力制限はここでも行うか</t>
+    <rPh sb="0" eb="2">
+      <t>カイイン</t>
+    </rPh>
+    <rPh sb="11" eb="15">
+      <t>ニュウリョクセイゲン</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>オコナ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>各画面とは、検索結果、ログイン画面、会員情報変更の3つで良いのか
+購入確認画面などに遷移しなくてよいか(要件定義書の会員ログイン画面参照)</t>
+    <rPh sb="33" eb="39">
+      <t>コウニュウカクニンガメン</t>
+    </rPh>
+    <rPh sb="42" eb="44">
+      <t>センイ</t>
+    </rPh>
+    <rPh sb="52" eb="57">
+      <t>ヨウケンテイギショ</t>
+    </rPh>
+    <rPh sb="58" eb="60">
+      <t>カイイン</t>
+    </rPh>
+    <rPh sb="64" eb="66">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="66" eb="68">
+      <t>サンショウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>非ログイン時の処理で、ログイン→カート一覧画面に遷移というのは、カートに追加をした</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>際の処理か</t>
+    <rPh sb="2" eb="4">
+      <t>ショリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>登録情報確認画面</t>
+    <rPh sb="0" eb="4">
+      <t>トウロクジョウホウ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>既にあるメールアドレスで登録した場合、登録できるのかできないのか、できなかった時のエラーメッセージはどうするべきか</t>
   </si>
 </sst>
 </file>
@@ -935,7 +1077,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="26">
+  <borders count="32">
     <border>
       <left/>
       <right/>
@@ -1061,17 +1203,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="dashed">
@@ -1256,13 +1387,100 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="dotted">
+        <color indexed="64"/>
+      </top>
+      <bottom style="dashed">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="dotted">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="dashed">
+        <color indexed="64"/>
+      </top>
+      <bottom style="dashed">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="63">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1287,25 +1505,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1">
@@ -1317,98 +1532,143 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="20" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="21" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="21" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="22" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1726,7 +1986,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F8FB7E9-4FDD-49E2-B598-83B457200A33}">
   <dimension ref="A1:C23"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
+    <sheetView topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A23" sqref="A23"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
@@ -1742,94 +2004,94 @@
       <c r="B1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="C1" s="11" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A2" s="45"/>
+      <c r="A2" s="50"/>
       <c r="B2" s="4" t="s">
         <v>13</v>
       </c>
       <c r="C2" s="4"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A3" s="45"/>
+      <c r="A3" s="50"/>
       <c r="B3" s="4" t="s">
         <v>16</v>
       </c>
       <c r="C3" s="4"/>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A4" s="45"/>
+      <c r="A4" s="50"/>
       <c r="B4" s="4" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C4" s="4"/>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A5" s="45"/>
+      <c r="A5" s="50"/>
       <c r="B5" s="4" t="s">
         <v>22</v>
       </c>
       <c r="C5" s="4"/>
     </row>
     <row r="6" spans="1:3" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A6" s="45"/>
+      <c r="A6" s="50"/>
       <c r="B6" s="4" t="s">
         <v>23</v>
       </c>
       <c r="C6" s="4"/>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A7" s="20" t="s">
+      <c r="A7" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="B7" s="43" t="s">
+      <c r="B7" s="48" t="s">
         <v>25</v>
       </c>
       <c r="C7" s="3"/>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A8" s="14" t="s">
+      <c r="A8" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="B8" s="45"/>
+      <c r="B8" s="50"/>
       <c r="C8" s="4"/>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A9" s="14" t="s">
+      <c r="A9" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="B9" s="45"/>
+      <c r="B9" s="50"/>
       <c r="C9" s="4"/>
     </row>
     <row r="10" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A10" s="14" t="s">
+      <c r="A10" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="B10" s="45"/>
+      <c r="B10" s="50"/>
       <c r="C10" s="4"/>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A11" s="21" t="s">
+      <c r="A11" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="B11" s="45"/>
+      <c r="B11" s="50"/>
       <c r="C11" s="4"/>
     </row>
     <row r="12" spans="1:3" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A12" s="14" t="s">
+      <c r="A12" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="B12" s="44"/>
-      <c r="C12" s="13"/>
+      <c r="B12" s="49"/>
+      <c r="C12" s="12"/>
     </row>
     <row r="13" spans="1:3" ht="15.6" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A13" s="19" t="s">
+      <c r="A13" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="B13" s="46" t="s">
+      <c r="B13" s="51" t="s">
         <v>29</v>
       </c>
       <c r="C13" s="3" t="s">
@@ -1837,92 +2099,92 @@
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A14" s="14" t="s">
+      <c r="A14" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="B14" s="47"/>
+      <c r="B14" s="52"/>
       <c r="C14" s="4" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A15" s="14" t="s">
+      <c r="A15" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="B15" s="47"/>
+      <c r="B15" s="52"/>
       <c r="C15" s="4" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A16" s="14" t="s">
+      <c r="A16" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="B16" s="47"/>
+      <c r="B16" s="52"/>
       <c r="C16" s="4" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A17" s="14" t="s">
+      <c r="A17" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="B17" s="47"/>
+      <c r="B17" s="52"/>
       <c r="C17" s="4" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A18" s="14" t="s">
+      <c r="A18" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="B18" s="48"/>
-      <c r="C18" s="13" t="s">
+      <c r="B18" s="53"/>
+      <c r="C18" s="12" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="36.6" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A19" s="22" t="s">
+      <c r="A19" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="B19" s="19" t="s">
+      <c r="B19" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="C19" s="22"/>
+      <c r="C19" s="21"/>
     </row>
     <row r="20" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A20" s="38" t="s">
+      <c r="A20" s="35" t="s">
         <v>38</v>
       </c>
-      <c r="B20" s="43" t="s">
+      <c r="B20" s="48" t="s">
         <v>37</v>
       </c>
-      <c r="C20" s="43"/>
+      <c r="C20" s="48"/>
     </row>
     <row r="21" spans="1:3" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A21" s="17" t="s">
+      <c r="A21" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="B21" s="44"/>
-      <c r="C21" s="44"/>
+      <c r="B21" s="49"/>
+      <c r="C21" s="49"/>
     </row>
     <row r="22" spans="1:3" ht="36.6" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A22" s="23" t="s">
+      <c r="A22" s="22" t="s">
         <v>40</v>
       </c>
-      <c r="B22" s="24" t="s">
-        <v>64</v>
-      </c>
-      <c r="C22" s="25"/>
+      <c r="B22" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="C22" s="24"/>
     </row>
     <row r="23" spans="1:3" ht="36.6" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A23" s="23" t="s">
-        <v>74</v>
-      </c>
-      <c r="B23" s="24" t="s">
-        <v>75</v>
-      </c>
-      <c r="C23" s="25"/>
+      <c r="A23" s="22" t="s">
+        <v>71</v>
+      </c>
+      <c r="B23" s="23" t="s">
+        <v>72</v>
+      </c>
+      <c r="C23" s="24"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -1940,9 +2202,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C65AB5F3-8A12-4EB9-8D26-D5B11EA9BAD6}">
-  <dimension ref="A1:C17"/>
+  <dimension ref="A1:C19"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
@@ -1962,122 +2226,136 @@
       </c>
     </row>
     <row r="2" spans="1:3" ht="36" x14ac:dyDescent="0.45">
-      <c r="A2" s="43" t="s">
+      <c r="A2" s="48" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="40" t="s">
+      <c r="B2" s="37" t="s">
+        <v>85</v>
+      </c>
+      <c r="C2" s="38"/>
+    </row>
+    <row r="3" spans="1:3" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A3" s="50"/>
+      <c r="B3" s="39" t="s">
+        <v>74</v>
+      </c>
+      <c r="C3" s="32"/>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A4" s="48" t="s">
+        <v>75</v>
+      </c>
+      <c r="B4" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="C2" s="41"/>
-    </row>
-    <row r="3" spans="1:3" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A3" s="45"/>
-      <c r="B3" s="42" t="s">
-        <v>77</v>
-      </c>
-      <c r="C3" s="35"/>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A4" s="43" t="s">
-        <v>78</v>
-      </c>
-      <c r="B4" s="9" t="s">
+      <c r="C4" s="3"/>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A5" s="50"/>
+      <c r="B5" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="C4" s="3"/>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A5" s="45"/>
-      <c r="B5" s="1" t="s">
-        <v>43</v>
-      </c>
       <c r="C5" s="4"/>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A6" s="45"/>
+      <c r="A6" s="50"/>
       <c r="B6" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C6" s="4"/>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A7" s="45"/>
+      <c r="A7" s="50"/>
       <c r="B7" s="1" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="C7" s="4"/>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A8" s="45"/>
+      <c r="A8" s="50"/>
       <c r="B8" s="1" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="C8" s="4"/>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A9" s="45"/>
+      <c r="A9" s="50"/>
       <c r="B9" s="1" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="C9" s="4"/>
     </row>
     <row r="10" spans="1:3" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A10" s="45"/>
+      <c r="A10" s="50"/>
       <c r="B10" s="4" t="s">
         <v>11</v>
       </c>
       <c r="C10" s="4"/>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A11" s="43" t="s">
-        <v>79</v>
+      <c r="A11" s="48" t="s">
+        <v>76</v>
       </c>
       <c r="B11" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="C11" s="15"/>
+      <c r="C11" s="14"/>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A12" s="45"/>
+      <c r="A12" s="50"/>
       <c r="B12" s="8" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C12" s="5"/>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A13" s="45"/>
+      <c r="A13" s="50"/>
       <c r="B13" s="8" t="s">
         <v>4</v>
       </c>
       <c r="C13" s="5"/>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A14" s="45"/>
+      <c r="A14" s="50"/>
       <c r="B14" s="8" t="s">
         <v>9</v>
       </c>
       <c r="C14" s="5"/>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A15" s="45"/>
+      <c r="A15" s="50"/>
       <c r="B15" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="C15" s="5"/>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A16" s="50"/>
+      <c r="B16" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="C16" s="5"/>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A17" s="50"/>
+      <c r="B17" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="C17" s="5"/>
+    </row>
+    <row r="18" spans="1:3" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A18" s="49"/>
+      <c r="B18" s="36" t="s">
         <v>44</v>
       </c>
-      <c r="C15" s="5"/>
-    </row>
-    <row r="16" spans="1:3" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A16" s="44"/>
-      <c r="B16" s="39" t="s">
-        <v>45</v>
-      </c>
-      <c r="C16" s="6"/>
-    </row>
-    <row r="17" spans="3:3" x14ac:dyDescent="0.45">
-      <c r="C17" s="34"/>
+      <c r="C18" s="6"/>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="C19" s="31"/>
     </row>
   </sheetData>
   <mergeCells count="3">
-    <mergeCell ref="A11:A16"/>
+    <mergeCell ref="A11:A18"/>
     <mergeCell ref="A4:A10"/>
     <mergeCell ref="A2:A3"/>
   </mergeCells>
@@ -2089,9 +2367,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B964CEE8-79F1-414D-9737-5A303D226F85}">
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:C16"/>
   <sheetViews>
-    <sheetView zoomScale="86" workbookViewId="0"/>
+    <sheetView zoomScale="86" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15:B16"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
@@ -2111,61 +2391,124 @@
       </c>
     </row>
     <row r="2" spans="1:3" ht="36" x14ac:dyDescent="0.45">
-      <c r="A2" s="43" t="s">
-        <v>50</v>
+      <c r="A2" s="54" t="s">
+        <v>49</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="C2" s="3"/>
+        <v>47</v>
+      </c>
+      <c r="C2" s="10"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A3" s="45"/>
+      <c r="A3" s="55"/>
       <c r="B3" s="4" t="s">
         <v>6</v>
       </c>
       <c r="C3" s="4"/>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A4" s="45"/>
+      <c r="A4" s="55"/>
       <c r="B4" s="4" t="s">
         <v>5</v>
       </c>
       <c r="C4" s="4"/>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A5" s="45"/>
+      <c r="A5" s="55"/>
       <c r="B5" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C5" s="4"/>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A6" s="45"/>
+      <c r="A6" s="55"/>
       <c r="B6" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="C6" s="4"/>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A7" s="55"/>
+      <c r="B7" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="C6" s="4"/>
-    </row>
-    <row r="7" spans="1:3" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A7" s="45"/>
-      <c r="B7" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="C7" s="7"/>
-    </row>
-    <row r="8" spans="1:3" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A8" s="26" t="s">
-        <v>51</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="C8" s="2"/>
+      <c r="C7" s="4"/>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A8" s="55"/>
+      <c r="B8" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="C8" s="4"/>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A9" s="55"/>
+      <c r="B9" s="46" t="s">
+        <v>77</v>
+      </c>
+      <c r="C9" s="7"/>
+    </row>
+    <row r="10" spans="1:3" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A10" s="56"/>
+      <c r="B10" s="45" t="s">
+        <v>64</v>
+      </c>
+      <c r="C10" s="45"/>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A11" s="57" t="s">
+        <v>78</v>
+      </c>
+      <c r="B11" s="51" t="s">
+        <v>79</v>
+      </c>
+      <c r="C11" s="48"/>
+    </row>
+    <row r="12" spans="1:3" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A12" s="58"/>
+      <c r="B12" s="49"/>
+      <c r="C12" s="49"/>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A13" s="48" t="s">
+        <v>50</v>
+      </c>
+      <c r="B13" s="47" t="s">
+        <v>80</v>
+      </c>
+      <c r="C13" s="47"/>
+    </row>
+    <row r="14" spans="1:3" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A14" s="49"/>
+      <c r="B14" s="45" t="s">
+        <v>81</v>
+      </c>
+      <c r="C14" s="12"/>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A15" s="48" t="s">
+        <v>82</v>
+      </c>
+      <c r="B15" s="48" t="s">
+        <v>83</v>
+      </c>
+      <c r="C15" s="48"/>
+    </row>
+    <row r="16" spans="1:3" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A16" s="49"/>
+      <c r="B16" s="49"/>
+      <c r="C16" s="49"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A2:A7"/>
+  <mergeCells count="8">
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="A2:A10"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="C11:C12"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2174,9 +2517,11 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2CB6D5FA-221C-4DE9-AF9F-2825B59936D3}">
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C8"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="102" zoomScaleNormal="102" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
@@ -2196,57 +2541,65 @@
       </c>
     </row>
     <row r="2" spans="1:3" ht="36" x14ac:dyDescent="0.45">
-      <c r="A2" s="43" t="s">
+      <c r="A2" s="48" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="28" t="s">
+      <c r="B2" s="26" t="s">
+        <v>53</v>
+      </c>
+      <c r="C2" s="3"/>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A3" s="50"/>
+      <c r="B3" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C3" s="15"/>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A4" s="50"/>
+      <c r="B4" s="62" t="s">
+        <v>84</v>
+      </c>
+      <c r="C4" s="61"/>
+    </row>
+    <row r="5" spans="1:3" ht="36.6" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A5" s="49"/>
+      <c r="B5" s="25" t="s">
+        <v>54</v>
+      </c>
+      <c r="C5" s="25"/>
+    </row>
+    <row r="6" spans="1:3" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A6" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="43" t="s">
         <v>55</v>
       </c>
-      <c r="C2" s="3"/>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A3" s="45"/>
-      <c r="B3" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="C3" s="16"/>
-    </row>
-    <row r="4" spans="1:3" ht="36.6" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A4" s="44"/>
-      <c r="B4" s="29" t="s">
+      <c r="C6" s="2"/>
+    </row>
+    <row r="7" spans="1:3" ht="41.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A7" s="40" t="s">
+        <v>88</v>
+      </c>
+      <c r="B7" s="27" t="s">
+        <v>89</v>
+      </c>
+      <c r="C7" s="27"/>
+    </row>
+    <row r="8" spans="1:3" ht="36.6" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A8" s="17" t="s">
+        <v>51</v>
+      </c>
+      <c r="B8" s="28" t="s">
         <v>56</v>
       </c>
-      <c r="C4" s="30"/>
-    </row>
-    <row r="5" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A5" s="46" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="C5" s="3"/>
-    </row>
-    <row r="6" spans="1:3" ht="36.6" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A6" s="48"/>
-      <c r="B6" s="27" t="s">
-        <v>63</v>
-      </c>
-      <c r="C6" s="27"/>
-    </row>
-    <row r="7" spans="1:3" ht="36.6" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A7" s="18" t="s">
-        <v>53</v>
-      </c>
-      <c r="B7" s="31" t="s">
-        <v>58</v>
-      </c>
-      <c r="C7" s="30"/>
+      <c r="C8" s="27"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="A5:A6"/>
+  <mergeCells count="1">
+    <mergeCell ref="A2:A5"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2258,7 +2611,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E26B6F5A-9478-41E7-B16E-979C29CC429A}">
   <dimension ref="A1:C10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
@@ -2278,72 +2633,75 @@
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A2" s="43" t="s">
+      <c r="A2" s="59" t="s">
+        <v>57</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="C2" s="29"/>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A3" s="60"/>
+      <c r="B3" s="30" t="s">
+        <v>66</v>
+      </c>
+      <c r="C3" s="34"/>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A4" s="60"/>
+      <c r="B4" s="32" t="s">
+        <v>65</v>
+      </c>
+      <c r="C4" s="33"/>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A5" s="60"/>
+      <c r="B5" s="32" t="s">
+        <v>69</v>
+      </c>
+      <c r="C5" s="33"/>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A6" s="60"/>
+      <c r="B6" s="32" t="s">
+        <v>70</v>
+      </c>
+      <c r="C6" s="33"/>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A7" s="60"/>
+      <c r="B7" s="30" t="s">
         <v>59</v>
       </c>
-      <c r="B2" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="C2" s="32"/>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A3" s="45"/>
-      <c r="B3" s="33" t="s">
-        <v>69</v>
-      </c>
-      <c r="C3" s="37"/>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A4" s="45"/>
-      <c r="B4" s="35" t="s">
+      <c r="C7" s="7"/>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A8" s="60"/>
+      <c r="B8" s="41" t="s">
+        <v>73</v>
+      </c>
+      <c r="C8" s="32"/>
+    </row>
+    <row r="9" spans="1:3" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A9" s="58"/>
+      <c r="B9" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="C9" s="45"/>
+    </row>
+    <row r="10" spans="1:3" ht="54.6" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A10" s="42" t="s">
+        <v>67</v>
+      </c>
+      <c r="B10" s="43" t="s">
         <v>68</v>
       </c>
-      <c r="C4" s="36"/>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A5" s="45"/>
-      <c r="B5" s="35" t="s">
-        <v>72</v>
-      </c>
-      <c r="C5" s="36"/>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A6" s="45"/>
-      <c r="B6" s="35" t="s">
-        <v>73</v>
-      </c>
-      <c r="C6" s="36"/>
-    </row>
-    <row r="7" spans="1:3" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A7" s="44"/>
-      <c r="B7" s="11" t="s">
-        <v>61</v>
-      </c>
-      <c r="C7" s="13"/>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A8" s="46" t="s">
-        <v>70</v>
-      </c>
-      <c r="B8" s="9" t="s">
-        <v>71</v>
-      </c>
-      <c r="C8" s="32"/>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A9" s="45"/>
-      <c r="B9" s="35"/>
-      <c r="C9" s="36"/>
-    </row>
-    <row r="10" spans="1:3" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A10" s="44"/>
-      <c r="B10" s="11"/>
-      <c r="C10" s="13"/>
+      <c r="C10" s="44"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A2:A7"/>
-    <mergeCell ref="A8:A10"/>
+  <mergeCells count="1">
+    <mergeCell ref="A2:A9"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
